--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/TermDeposit.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/TermDeposit.xlsx
@@ -66,9 +66,6 @@
     <t>account_no</t>
   </si>
   <si>
-    <t>When valid bill details are provided 05151110478500</t>
-  </si>
-  <si>
     <t>02197900643103</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Your transaction has been processed successfully.</t>
+  </si>
+  <si>
+    <t>When valid details are provided</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,22 +471,22 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>12</v>
@@ -498,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1" t="s">
         <v>4</v>
@@ -506,34 +506,34 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>13</v>
@@ -545,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
         <v>9</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/TermDeposit.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/TermDeposit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="74">
   <si>
     <t>Case</t>
   </si>
@@ -66,15 +66,6 @@
     <t>account_no</t>
   </si>
   <si>
-    <t>02197900643103</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}';COMMIT;END;</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
-  </si>
-  <si>
     <t>Term Deposit</t>
   </si>
   <si>
@@ -105,7 +96,151 @@
     <t>Your transaction has been processed successfully.</t>
   </si>
   <si>
-    <t>When valid details are provided</t>
+    <t>25000.50</t>
+  </si>
+  <si>
+    <t>14900011079803</t>
+  </si>
+  <si>
+    <t>00470002795201</t>
+  </si>
+  <si>
+    <t>Five Years</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>Ten Years</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>Three Years</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>Two Years</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>abc@@!%$</t>
+  </si>
+  <si>
+    <t>Seven Years</t>
+  </si>
+  <si>
+    <t>pakistan526</t>
+  </si>
+  <si>
+    <t>Six Years</t>
+  </si>
+  <si>
+    <t>9999999</t>
+  </si>
+  <si>
+    <t>08497900068901</t>
+  </si>
+  <si>
+    <t>10000001</t>
+  </si>
+  <si>
+    <t>24999</t>
+  </si>
+  <si>
+    <t>Fifty Years</t>
+  </si>
+  <si>
+    <t>4000000</t>
+  </si>
+  <si>
+    <t>8497900068901</t>
+  </si>
+  <si>
+    <t>00387900044611</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not successfully apply for Term Deposit with Amount greater than available balance KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit without selecting Term Deposit Tenure KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit by selecting invalid Term Deposit Tenure KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with null From Account KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with null Account for Profit Disbursement KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with less than 25000 KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with greater than 10,000,000 KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not successfully apply for Term Deposit greater than allowed limit KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Term Deposit less than allowed limit KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with invalid Transaction Password KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with invalid amount value KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Term Deposit while From Account is Current Account (1-Year) KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Term Deposit while From Account is Current Account (2-Years) KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Term Deposit while From Account is Current Account (3-Years) KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Term Deposit while From Account is Current Account (5-Years) KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Term Deposit while From Account is Current Account (10-Years) KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Term Deposit while From Account is Savings Account KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Term Deposit with decimal amount KHURSHIDKH38</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not successfully apply for Term Deposit with locked transaction passwords AMINKASANA</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not successfully apply for Term Deposit with null transaction passwords ATIF5959</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not successfully apply for Term Deposit with De-linked account MAZHAR95</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with FCY account FCYMB</t>
   </si>
 </sst>
 </file>
@@ -121,15 +256,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,13 +288,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,14 +576,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="118.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="20" style="1" customWidth="1"/>
@@ -457,7 +596,7 @@
     <col min="19" max="19" width="118.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,22 +610,22 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>12</v>
@@ -498,122 +637,998 @@
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="P1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="D15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="D17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="D19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="D20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="D21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="D22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="D23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="K10" s="1"/>
+      <c r="I23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
